--- a/Datasets/SeperateCountryFiles/India.xlsx
+++ b/Datasets/SeperateCountryFiles/India.xlsx
@@ -364,19 +364,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="8" max="8"/>
     <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+    <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="10" max="10"/>
     <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
     <col width="27" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
@@ -393,55 +408,59 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>WorldRegion</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+          <t>Continent</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Sub-Region</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>CountryName</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedCases</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TotalConfirmedNewCases</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>TotalDeaths</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>TotalNewDeaths</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TransmissionClassification </t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>DaysSinceLastReportedCase</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>MasterSheet RowNo.</t>
         </is>
       </c>
-      <c r="M1" s="2" t="n"/>
       <c r="N1" s="2" t="n"/>
       <c r="O1" s="2" t="n"/>
     </row>
@@ -450,31 +469,29 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>43860</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
       </c>
       <c r="G2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -491,10 +508,14 @@
           <t>N/R</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
     </row>
@@ -503,47 +524,49 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>43861</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
           <t>N/R</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
     </row>
@@ -552,49 +575,51 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>43862</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>N/R</t>
         </is>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
     </row>
@@ -603,49 +628,51 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>43863</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
           <t>N/R</t>
         </is>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
     </row>
@@ -654,47 +681,49 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
           <t>N/R</t>
         </is>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
     </row>
@@ -703,47 +732,49 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>43865</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
     </row>
@@ -752,47 +783,49 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="M8" s="2" t="n"/>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
     </row>
@@ -801,47 +834,49 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>43867</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
     </row>
@@ -850,47 +885,49 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>43868</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="n">
         <v>282</v>
       </c>
-      <c r="M10" s="2" t="n"/>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
     </row>
@@ -899,47 +936,49 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>43869</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>Local Tramsmission</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
         <v>308</v>
       </c>
-      <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
     </row>
@@ -948,47 +987,49 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>43870</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
         <v>334</v>
       </c>
-      <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
     </row>
@@ -997,47 +1038,49 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>43871</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
     </row>
@@ -1046,47 +1089,49 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>43872</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
     </row>
@@ -1095,47 +1140,49 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>43873</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
         <v>412</v>
       </c>
-      <c r="M15" s="2" t="n"/>
       <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n"/>
     </row>
@@ -1144,47 +1191,49 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>43874</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n">
         <v>438</v>
       </c>
-      <c r="M16" s="2" t="n"/>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="n"/>
     </row>
@@ -1193,47 +1242,49 @@
         <v>25</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>43875</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
         <v>464</v>
       </c>
-      <c r="M17" s="2" t="n"/>
       <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="n"/>
     </row>
@@ -1242,47 +1293,49 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>43876</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>Local Tramsmission</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n">
         <v>490</v>
       </c>
-      <c r="M18" s="2" t="n"/>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
     </row>
@@ -1291,47 +1344,49 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
         <v>43877</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="n">
         <v>517</v>
       </c>
-      <c r="M19" s="2" t="n"/>
       <c r="N19" s="2" t="n"/>
       <c r="O19" s="2" t="n"/>
     </row>
@@ -1340,47 +1395,49 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>43878</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="2" t="inlineStr">
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="n">
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="n">
         <v>544</v>
       </c>
-      <c r="M20" s="2" t="n"/>
       <c r="N20" s="2" t="n"/>
       <c r="O20" s="2" t="n"/>
     </row>
@@ -1389,47 +1446,49 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>43879</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="2" t="inlineStr">
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="n">
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="n">
         <v>571</v>
       </c>
-      <c r="M21" s="2" t="n"/>
       <c r="N21" s="2" t="n"/>
       <c r="O21" s="2" t="n"/>
     </row>
@@ -1438,47 +1497,49 @@
         <v>30</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>43880</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="n">
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="n">
         <v>598</v>
       </c>
-      <c r="M22" s="2" t="n"/>
       <c r="N22" s="2" t="n"/>
       <c r="O22" s="2" t="n"/>
     </row>
@@ -1487,47 +1548,49 @@
         <v>31</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>43881</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="n">
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="n">
         <v>625</v>
       </c>
-      <c r="M23" s="2" t="n"/>
       <c r="N23" s="2" t="n"/>
       <c r="O23" s="2" t="n"/>
     </row>
@@ -1536,47 +1599,49 @@
         <v>32</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>43882</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="n">
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="n">
         <v>653</v>
       </c>
-      <c r="M24" s="2" t="n"/>
       <c r="N24" s="2" t="n"/>
       <c r="O24" s="2" t="n"/>
     </row>
@@ -1585,47 +1650,49 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>43883</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="J25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="n">
         <v>681</v>
       </c>
-      <c r="M25" s="2" t="n"/>
       <c r="N25" s="2" t="n"/>
       <c r="O25" s="2" t="n"/>
     </row>
@@ -1634,47 +1701,49 @@
         <v>34</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
         <v>43884</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="J26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="n">
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="n">
         <v>711</v>
       </c>
-      <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="n"/>
     </row>
@@ -1683,47 +1752,49 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="2" t="inlineStr">
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="n">
         <v>741</v>
       </c>
-      <c r="M27" s="2" t="n"/>
       <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="n"/>
     </row>
@@ -1732,47 +1803,49 @@
         <v>36</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
         <v>43886</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="2" t="inlineStr">
+      <c r="J28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
         <is>
           <t>Local Tramsmission</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="n">
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="n">
         <v>772</v>
       </c>
-      <c r="M28" s="2" t="n"/>
       <c r="N28" s="2" t="n"/>
       <c r="O28" s="2" t="n"/>
     </row>
@@ -1781,47 +1854,49 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
         <v>43887</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="n">
         <v>807</v>
       </c>
-      <c r="M29" s="2" t="n"/>
       <c r="N29" s="2" t="n"/>
       <c r="O29" s="2" t="n"/>
     </row>
@@ -1830,47 +1905,49 @@
         <v>38</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
         <v>43888</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
         <is>
           <t>Imported Cases Only</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="n">
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="n">
         <v>846</v>
       </c>
-      <c r="M30" s="2" t="n"/>
       <c r="N30" s="2" t="n"/>
       <c r="O30" s="2" t="n"/>
     </row>
@@ -1879,47 +1956,49 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>43889</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>N/R</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>N/R</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="n">
         <v>918</v>
       </c>
-      <c r="M31" s="2" t="n"/>
       <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="n"/>
     </row>
@@ -1928,45 +2007,47 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n">
         <v>43890</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J32" s="2" t="inlineStr">
+      <c r="J32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="L32" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="M32" s="2" t="n">
         <v>972</v>
       </c>
-      <c r="M32" s="2" t="n"/>
       <c r="N32" s="2" t="n"/>
       <c r="O32" s="2" t="n"/>
     </row>
@@ -1975,45 +2056,47 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n">
         <v>43891</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G33" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="2" t="inlineStr">
+      <c r="J33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="L33" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="M33" s="2" t="n">
         <v>1030</v>
       </c>
-      <c r="M33" s="2" t="n"/>
       <c r="N33" s="2" t="n"/>
       <c r="O33" s="2" t="n"/>
     </row>
@@ -2022,45 +2105,47 @@
         <v>42</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
         <v>43892</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="2" t="inlineStr">
+      <c r="J34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="L34" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="M34" s="2" t="n">
         <v>1094</v>
       </c>
-      <c r="M34" s="2" t="n"/>
       <c r="N34" s="2" t="n"/>
       <c r="O34" s="2" t="n"/>
     </row>
@@ -2069,45 +2154,47 @@
         <v>43</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n">
         <v>43893</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="H35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="2" t="inlineStr">
+      <c r="J35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K35" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2" t="n">
         <v>1163</v>
       </c>
-      <c r="M35" s="2" t="n"/>
       <c r="N35" s="2" t="n"/>
       <c r="O35" s="2" t="n"/>
     </row>
@@ -2116,45 +2203,47 @@
         <v>44</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n">
         <v>43894</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="H36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="2" t="inlineStr">
+      <c r="J36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
         <is>
           <t>Imported cases only</t>
         </is>
       </c>
-      <c r="K36" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="n">
         <v>1239</v>
       </c>
-      <c r="M36" s="2" t="n"/>
       <c r="N36" s="2" t="n"/>
       <c r="O36" s="2" t="n"/>
     </row>
@@ -2163,45 +2252,47 @@
         <v>45</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n">
         <v>43895</v>
       </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="H37" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="2" t="inlineStr">
+      <c r="J37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K37" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="n">
         <v>1322</v>
       </c>
-      <c r="M37" s="2" t="n"/>
       <c r="N37" s="2" t="n"/>
       <c r="O37" s="2" t="n"/>
     </row>
@@ -2210,45 +2301,47 @@
         <v>46</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="n">
         <v>43896</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="H38" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="2" t="inlineStr">
+      <c r="J38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K38" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2" t="n">
         <v>1409</v>
       </c>
-      <c r="M38" s="2" t="n"/>
       <c r="N38" s="2" t="n"/>
       <c r="O38" s="2" t="n"/>
     </row>
@@ -2257,45 +2350,47 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="n">
         <v>43897</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="H39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="2" t="inlineStr">
+      <c r="J39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K39" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="n">
         <v>1501</v>
       </c>
-      <c r="M39" s="2" t="n"/>
       <c r="N39" s="2" t="n"/>
       <c r="O39" s="2" t="n"/>
     </row>
@@ -2304,45 +2399,47 @@
         <v>48</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n">
         <v>43898</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="H40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="2" t="inlineStr">
+      <c r="J40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K40" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2" t="n">
         <v>1600</v>
       </c>
-      <c r="M40" s="2" t="n"/>
       <c r="N40" s="2" t="n"/>
       <c r="O40" s="2" t="n"/>
     </row>
@@ -2351,45 +2448,47 @@
         <v>49</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n">
         <v>43899</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="H41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="2" t="inlineStr">
+      <c r="J41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K41" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2" t="n">
         <v>1704</v>
       </c>
-      <c r="M41" s="2" t="n"/>
       <c r="N41" s="2" t="n"/>
       <c r="O41" s="2" t="n"/>
     </row>
@@ -2398,45 +2497,47 @@
         <v>50</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n">
         <v>43900</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="H42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="J42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K42" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="n">
         <v>1814</v>
       </c>
-      <c r="M42" s="2" t="n"/>
       <c r="N42" s="2" t="n"/>
       <c r="O42" s="2" t="n"/>
     </row>
@@ -2445,45 +2546,47 @@
         <v>51</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n">
         <v>43901</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="H43" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="2" t="inlineStr">
+      <c r="J43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K43" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="n">
         <v>1924</v>
       </c>
-      <c r="M43" s="2" t="n"/>
       <c r="N43" s="2" t="n"/>
       <c r="O43" s="2" t="n"/>
     </row>
@@ -2492,45 +2595,47 @@
         <v>52</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="n">
         <v>43902</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="H44" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="J44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K44" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2" t="n">
         <v>2041</v>
       </c>
-      <c r="M44" s="2" t="n"/>
       <c r="N44" s="2" t="n"/>
       <c r="O44" s="2" t="n"/>
     </row>
@@ -2539,26 +2644,26 @@
         <v>53</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n">
         <v>43903</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
         <v>74</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>1</v>
@@ -2566,18 +2671,20 @@
       <c r="I45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J45" s="2" t="inlineStr">
+      <c r="J45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K45" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2" t="n">
         <v>2162</v>
       </c>
-      <c r="M45" s="2" t="n"/>
       <c r="N45" s="2" t="n"/>
       <c r="O45" s="2" t="n"/>
     </row>
@@ -2586,45 +2693,47 @@
         <v>54</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
         <v>43904</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="H46" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="I46" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="J46" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K46" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="n">
         <v>2285</v>
       </c>
-      <c r="M46" s="2" t="n"/>
       <c r="N46" s="2" t="n"/>
       <c r="O46" s="2" t="n"/>
     </row>
@@ -2633,45 +2742,47 @@
         <v>55</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n">
         <v>43905</v>
       </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="H47" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="I47" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2" t="inlineStr">
+      <c r="J47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K47" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2" t="n">
         <v>2423</v>
       </c>
-      <c r="M47" s="2" t="n"/>
       <c r="N47" s="2" t="n"/>
       <c r="O47" s="2" t="n"/>
     </row>
@@ -2680,45 +2791,47 @@
         <v>56</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="n">
         <v>43906</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="H48" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="I48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
+      <c r="J48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K48" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2" t="n">
         <v>2523</v>
       </c>
-      <c r="M48" s="2" t="n"/>
       <c r="N48" s="2" t="n"/>
       <c r="O48" s="2" t="n"/>
     </row>
@@ -2727,45 +2840,47 @@
         <v>57</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="n">
         <v>43907</v>
       </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="H49" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="I49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="J49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J49" s="2" t="inlineStr">
+      <c r="K49" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K49" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="n">
         <v>2677</v>
       </c>
-      <c r="M49" s="2" t="n"/>
       <c r="N49" s="2" t="n"/>
       <c r="O49" s="2" t="n"/>
     </row>
@@ -2774,45 +2889,47 @@
         <v>58</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="n">
         <v>43908</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="G50" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
+      <c r="J50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K50" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="n">
         <v>2838</v>
       </c>
-      <c r="M50" s="2" t="n"/>
       <c r="N50" s="2" t="n"/>
       <c r="O50" s="2" t="n"/>
     </row>
@@ -2821,45 +2938,47 @@
         <v>59</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="n">
         <v>43909</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="H51" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="I51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
+      <c r="J51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K51" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="n">
         <v>3001</v>
       </c>
-      <c r="M51" s="2" t="n"/>
       <c r="N51" s="2" t="n"/>
       <c r="O51" s="2" t="n"/>
     </row>
@@ -2868,45 +2987,47 @@
         <v>60</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="n">
         <v>43910</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="H52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="I52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="J52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J52" s="2" t="inlineStr">
+      <c r="K52" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K52" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="n">
         <v>3172</v>
       </c>
-      <c r="M52" s="2" t="n"/>
       <c r="N52" s="2" t="n"/>
       <c r="O52" s="2" t="n"/>
     </row>
@@ -2915,45 +3036,47 @@
         <v>61</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="n">
         <v>43911</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="G53" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
+      <c r="J53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="L53" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="M53" s="2" t="n">
         <v>3351</v>
       </c>
-      <c r="M53" s="2" t="n"/>
       <c r="N53" s="2" t="n"/>
       <c r="O53" s="2" t="n"/>
     </row>
@@ -2962,45 +3085,47 @@
         <v>62</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="n">
         <v>43912</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
         <v>283</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="H54" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="I54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
+      <c r="J54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K54" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2" t="n">
         <v>3534</v>
       </c>
-      <c r="M54" s="2" t="n"/>
       <c r="N54" s="2" t="n"/>
       <c r="O54" s="2" t="n"/>
     </row>
@@ -3009,45 +3134,47 @@
         <v>63</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="n">
         <v>43913</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
         <v>415</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="H55" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="I55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="J55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J55" s="2" t="inlineStr">
+      <c r="K55" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K55" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2" t="n">
         <v>3722</v>
       </c>
-      <c r="M55" s="2" t="n"/>
       <c r="N55" s="2" t="n"/>
       <c r="O55" s="2" t="n"/>
     </row>
@@ -3056,45 +3183,47 @@
         <v>64</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="n">
         <v>43914</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
         <v>434</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="H56" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="I56" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="J56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J56" s="2" t="inlineStr">
+      <c r="K56" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K56" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2" t="n">
         <v>3913</v>
       </c>
-      <c r="M56" s="2" t="n"/>
       <c r="N56" s="2" t="n"/>
       <c r="O56" s="2" t="n"/>
     </row>
@@ -3103,45 +3232,47 @@
         <v>65</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="n">
         <v>43915</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
         <v>562</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="H57" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="I57" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
+      <c r="J57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K57" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="n">
         <v>4109</v>
       </c>
-      <c r="M57" s="2" t="n"/>
       <c r="N57" s="2" t="n"/>
       <c r="O57" s="2" t="n"/>
     </row>
@@ -3150,45 +3281,47 @@
         <v>66</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="n">
         <v>43916</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
         <v>649</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="H58" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="I58" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="J58" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J58" s="2" t="inlineStr">
+      <c r="K58" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K58" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="n">
         <v>4306</v>
       </c>
-      <c r="M58" s="2" t="n"/>
       <c r="N58" s="2" t="n"/>
       <c r="O58" s="2" t="n"/>
     </row>
@@ -3197,45 +3330,47 @@
         <v>67</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="n">
         <v>43917</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
         <v>724</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="H59" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="I59" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="J59" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J59" s="2" t="inlineStr">
+      <c r="K59" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K59" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2" t="n">
         <v>4501</v>
       </c>
-      <c r="M59" s="2" t="n"/>
       <c r="N59" s="2" t="n"/>
       <c r="O59" s="2" t="n"/>
     </row>
@@ -3244,45 +3379,47 @@
         <v>68</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="n">
         <v>43918</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
         <v>724</v>
       </c>
-      <c r="G60" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="I60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
+      <c r="J60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="L60" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L60" s="2" t="n">
+      <c r="M60" s="2" t="n">
         <v>4699</v>
       </c>
-      <c r="M60" s="2" t="n"/>
       <c r="N60" s="2" t="n"/>
       <c r="O60" s="2" t="n"/>
     </row>
@@ -3291,45 +3428,47 @@
         <v>69</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="n">
         <v>43919</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
         <v>979</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="H61" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="I61" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="J61" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J61" s="2" t="inlineStr">
+      <c r="K61" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K61" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2" t="n">
         <v>4900</v>
       </c>
-      <c r="M61" s="2" t="n"/>
       <c r="N61" s="2" t="n"/>
       <c r="O61" s="2" t="n"/>
     </row>
@@ -3338,45 +3477,47 @@
         <v>70</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="n">
         <v>43920</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
         <v>1071</v>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>92</v>
-      </c>
       <c r="H62" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="I62" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="J62" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J62" s="2" t="inlineStr">
+      <c r="K62" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K62" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2" t="n">
         <v>5103</v>
       </c>
-      <c r="M62" s="2" t="n"/>
       <c r="N62" s="2" t="n"/>
       <c r="O62" s="2" t="n"/>
     </row>
@@ -3385,45 +3526,47 @@
         <v>71</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Asia   </t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="n">
         <v>43921</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
         <v>1071</v>
       </c>
-      <c r="G63" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="I63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
+      <c r="J63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
         <is>
           <t>Local transmission</t>
         </is>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="L63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="M63" s="2" t="n">
         <v>5306</v>
       </c>
-      <c r="M63" s="2" t="n"/>
       <c r="N63" s="2" t="n"/>
       <c r="O63" s="2" t="n"/>
     </row>
